--- a/Code/Results/Cases/Case_3_146/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_146/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.966583844908342</v>
+        <v>0.7062078129466158</v>
       </c>
       <c r="C2">
-        <v>0.4533673900160125</v>
+        <v>0.1110542594521462</v>
       </c>
       <c r="D2">
-        <v>0.3362125631295783</v>
+        <v>0.1351963726444581</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.566886320426221</v>
+        <v>2.936124529211241</v>
       </c>
       <c r="G2">
-        <v>0.0007641528165374464</v>
+        <v>0.002443244553283323</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.81352250668516</v>
+        <v>0.8870578730246592</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.679124682166702</v>
+        <v>0.6438362344940458</v>
       </c>
       <c r="C3">
-        <v>0.3877937384120571</v>
+        <v>0.09645981523465252</v>
       </c>
       <c r="D3">
-        <v>0.2951689128350097</v>
+        <v>0.1241782874393209</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.719228373519854</v>
+        <v>2.713953354689124</v>
       </c>
       <c r="G3">
-        <v>0.0007757735375717445</v>
+        <v>0.002449556922653842</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.381247774605853</v>
+        <v>0.7895017007456175</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.507438124501249</v>
+        <v>0.6062791358478705</v>
       </c>
       <c r="C4">
-        <v>0.3486688004326766</v>
+        <v>0.087579010562024</v>
       </c>
       <c r="D4">
-        <v>0.2707157136666893</v>
+        <v>0.1174106975147424</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.213505962489165</v>
+        <v>2.578230831821116</v>
       </c>
       <c r="G4">
-        <v>0.0007830046077136965</v>
+        <v>0.002453625511293309</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.127632244981982</v>
+        <v>0.7301836773989265</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.438493837616164</v>
+        <v>0.5911579579166357</v>
       </c>
       <c r="C5">
-        <v>0.3329601389211803</v>
+        <v>0.08397943759374016</v>
       </c>
       <c r="D5">
-        <v>0.2609058456314699</v>
+        <v>0.1146515441342189</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.010522987526628</v>
+        <v>2.523086278532332</v>
       </c>
       <c r="G5">
-        <v>0.0007859805122292539</v>
+        <v>0.002455332174300686</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.026696394533673</v>
+        <v>0.7061498467686391</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.427102112853106</v>
+        <v>0.5886581246253115</v>
       </c>
       <c r="C6">
-        <v>0.3303645565720075</v>
+        <v>0.08338288293327878</v>
       </c>
       <c r="D6">
-        <v>0.2592854039902335</v>
+        <v>0.1141932898567575</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.976989052455735</v>
+        <v>2.513939139444972</v>
       </c>
       <c r="G6">
-        <v>0.000786476556798836</v>
+        <v>0.002455618510408565</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.010067544497872</v>
+        <v>0.7021672092802618</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.506504425919559</v>
+        <v>0.6060744657241628</v>
       </c>
       <c r="C7">
-        <v>0.3484560588256329</v>
+        <v>0.08753038778468181</v>
       </c>
       <c r="D7">
-        <v>0.2705828271761845</v>
+        <v>0.1173734928043899</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.210756640365815</v>
+        <v>2.577486484841813</v>
       </c>
       <c r="G7">
-        <v>0.0007830446176189359</v>
+        <v>0.002453648330729755</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.126261873318057</v>
+        <v>0.7298589968649623</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.866345601979702</v>
+        <v>0.6845472528653715</v>
       </c>
       <c r="C8">
-        <v>0.430488646331554</v>
+        <v>0.1060049801290575</v>
       </c>
       <c r="D8">
-        <v>0.321884146012124</v>
+        <v>0.1313974228434915</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.271163576704424</v>
+        <v>2.859370034301747</v>
       </c>
       <c r="G8">
-        <v>0.0007681430225563958</v>
+        <v>0.002445381174069589</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.661657997898232</v>
+        <v>0.8532951081362796</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.620360673580649</v>
+        <v>0.8444113891143274</v>
       </c>
       <c r="C9">
-        <v>0.6030989982682513</v>
+        <v>0.1429065185907348</v>
       </c>
       <c r="D9">
-        <v>0.4302045305422126</v>
+        <v>0.1589113843968022</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.500128348622724</v>
+        <v>3.418128215519602</v>
       </c>
       <c r="G9">
-        <v>0.0007394064992382892</v>
+        <v>0.002430689355263423</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.837116672335014</v>
+        <v>1.100329235156664</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.221077320959409</v>
+        <v>0.9656818871740143</v>
       </c>
       <c r="C10">
-        <v>0.741705188896816</v>
+        <v>0.1704819173461658</v>
       </c>
       <c r="D10">
-        <v>0.5176145025720018</v>
+        <v>0.179180617294179</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.28538029329718</v>
+        <v>3.833030792646525</v>
       </c>
       <c r="G10">
-        <v>0.0007181043650690595</v>
+        <v>0.00242080858791504</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.838089281624235</v>
+        <v>1.285383672960236</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.509550325798386</v>
+        <v>1.021719550366186</v>
       </c>
       <c r="C11">
-        <v>0.8086769774924392</v>
+        <v>0.183139461686892</v>
       </c>
       <c r="D11">
-        <v>0.5600403053063587</v>
+        <v>0.1884238169948276</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.14679361882645</v>
+        <v>4.02289593659998</v>
       </c>
       <c r="G11">
-        <v>0.0007082210092084522</v>
+        <v>0.002416509007142571</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.344449149033835</v>
+        <v>1.370460808347318</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.62152350347742</v>
+        <v>1.043067865889441</v>
       </c>
       <c r="C12">
-        <v>0.834748802189722</v>
+        <v>0.1879498017400181</v>
       </c>
       <c r="D12">
-        <v>0.5765999581024346</v>
+        <v>0.1919280485178092</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.48204430684797</v>
+        <v>4.094967313273514</v>
       </c>
       <c r="G12">
-        <v>0.0007044329524964469</v>
+        <v>0.002414908717598985</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.546266959912458</v>
+        <v>1.40281566585135</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.597276206369315</v>
+        <v>1.038464382721486</v>
       </c>
       <c r="C13">
-        <v>0.8290993958446506</v>
+        <v>0.1869130292356829</v>
       </c>
       <c r="D13">
-        <v>0.5730094147789089</v>
+        <v>0.1911731576870466</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.40940156188952</v>
+        <v>4.079437540537583</v>
       </c>
       <c r="G13">
-        <v>0.0007052511466605245</v>
+        <v>0.0024152521323529</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.502297356029246</v>
+        <v>1.395841179998285</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.518703981034889</v>
+        <v>1.023473306080746</v>
       </c>
       <c r="C14">
-        <v>0.8108066952742092</v>
+        <v>0.1835348612398207</v>
       </c>
       <c r="D14">
-        <v>0.5613920152093783</v>
+        <v>0.1887120269085472</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.17418005235896</v>
+        <v>4.028821744292486</v>
       </c>
       <c r="G14">
-        <v>0.0007079103970382361</v>
+        <v>0.002416376792893005</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.360831065398287</v>
+        <v>1.373119842065933</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.470950985600837</v>
+        <v>1.014307601777944</v>
       </c>
       <c r="C15">
-        <v>0.7996994876173176</v>
+        <v>0.1814679032707716</v>
       </c>
       <c r="D15">
-        <v>0.5543442416717426</v>
+        <v>0.1872050617155594</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.03134745620974</v>
+        <v>3.997841069888125</v>
       </c>
       <c r="G15">
-        <v>0.0007095327206121264</v>
+        <v>0.002417069303383572</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.275591461001113</v>
+        <v>1.359220618176934</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.202574763553173</v>
+        <v>0.9620374608120983</v>
       </c>
       <c r="C16">
-        <v>0.7374191028814039</v>
+        <v>0.1696570746811972</v>
       </c>
       <c r="D16">
-        <v>0.5149041918611488</v>
+        <v>0.1785770740327166</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.23023179914136</v>
+        <v>3.820646291062104</v>
       </c>
       <c r="G16">
-        <v>0.0007187449965364417</v>
+        <v>0.002421093486410788</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.80623294385876</v>
+        <v>1.279842479262058</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.042179011400378</v>
+        <v>0.9301965025731533</v>
       </c>
       <c r="C17">
-        <v>0.7003102163821495</v>
+        <v>0.162441181998588</v>
       </c>
       <c r="D17">
-        <v>0.4914599771773283</v>
+        <v>0.1732904281550987</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.752625189155992</v>
+        <v>3.712239320984139</v>
       </c>
       <c r="G17">
-        <v>0.0007243360871565641</v>
+        <v>0.00242361204952703</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.53298342652829</v>
+        <v>1.231382307525422</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.951315263911226</v>
+        <v>0.9119642452985204</v>
       </c>
       <c r="C18">
-        <v>0.6793244553911393</v>
+        <v>0.1583014057489152</v>
       </c>
       <c r="D18">
-        <v>0.4782178825172991</v>
+        <v>0.1702517714401068</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.482413677144677</v>
+        <v>3.649991555529766</v>
       </c>
       <c r="G18">
-        <v>0.0007275350955600462</v>
+        <v>0.002425079048772746</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.380406923694864</v>
+        <v>1.203592961534923</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.920774749106272</v>
+        <v>0.9058050847783647</v>
       </c>
       <c r="C19">
-        <v>0.6722766331506023</v>
+        <v>0.1569015445591333</v>
       </c>
       <c r="D19">
-        <v>0.4737731058719135</v>
+        <v>0.1692232685646502</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.391645813254769</v>
+        <v>3.628933214719012</v>
       </c>
       <c r="G19">
-        <v>0.000728615785409513</v>
+        <v>0.002425578914018428</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.329468988123793</v>
+        <v>1.194198056923582</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.059105828704674</v>
+        <v>0.9335775388524894</v>
       </c>
       <c r="C20">
-        <v>0.7042224817881788</v>
+        <v>0.1632082210843464</v>
       </c>
       <c r="D20">
-        <v>0.493929867682283</v>
+        <v>0.1738529795320858</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.802989569145495</v>
+        <v>3.723768469192123</v>
       </c>
       <c r="G20">
-        <v>0.0007237427593193062</v>
+        <v>0.002423342042569781</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.561579967830269</v>
+        <v>1.236532250248416</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.541703265976651</v>
+        <v>1.027873050161588</v>
       </c>
       <c r="C21">
-        <v>0.8161590482091015</v>
+        <v>0.1845266368880232</v>
       </c>
       <c r="D21">
-        <v>0.5647898591255114</v>
+        <v>0.1894348049698351</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.24300595517172</v>
+        <v>4.043684023620244</v>
       </c>
       <c r="G21">
-        <v>0.0007071307149855358</v>
+        <v>0.002416045698390501</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.402082093752455</v>
+        <v>1.379789829170406</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.873413787803315</v>
+        <v>1.090248462009754</v>
       </c>
       <c r="C22">
-        <v>0.8935582108468338</v>
+        <v>0.1985601598350968</v>
       </c>
       <c r="D22">
-        <v>0.6140608797630023</v>
+        <v>0.1996423029825394</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12.2383134783538</v>
+        <v>4.25378472819483</v>
       </c>
       <c r="G22">
-        <v>0.0006959957204193886</v>
+        <v>0.002411439457174026</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>6.012379519626364</v>
+        <v>1.474225788383436</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.694661572026462</v>
+        <v>1.056888154274191</v>
       </c>
       <c r="C23">
-        <v>0.8518016808528444</v>
+        <v>0.1910606858326958</v>
       </c>
       <c r="D23">
-        <v>0.5874462267902913</v>
+        <v>0.1941919240595666</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.70131914125528</v>
+        <v>4.141552926314205</v>
       </c>
       <c r="G23">
-        <v>0.000701971695912738</v>
+        <v>0.002413883108412396</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.679818398032864</v>
+        <v>1.423746381884953</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.05144904940272</v>
+        <v>0.932048743520113</v>
       </c>
       <c r="C24">
-        <v>0.7024526713127557</v>
+        <v>0.1628614155690116</v>
       </c>
       <c r="D24">
-        <v>0.492812502035008</v>
+        <v>0.1735986479126268</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.780206358021843</v>
+        <v>3.718555902831326</v>
       </c>
       <c r="G24">
-        <v>0.0007240110493169767</v>
+        <v>0.00242346405354921</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.54863758633887</v>
+        <v>1.23420374053147</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.409615515051541</v>
+        <v>0.8005061617689648</v>
       </c>
       <c r="C25">
-        <v>0.5547212473079242</v>
+        <v>0.1328461689817004</v>
       </c>
       <c r="D25">
-        <v>0.3997930475588305</v>
+        <v>0.1514619330618387</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.876010034066837</v>
+        <v>3.266253382406745</v>
       </c>
       <c r="G25">
-        <v>0.000747172111499896</v>
+        <v>0.002434502528124131</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.500468144289428</v>
+        <v>1.032913852734069</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_146/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_146/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7062078129466158</v>
+        <v>1.966583844908513</v>
       </c>
       <c r="C2">
-        <v>0.1110542594521462</v>
+        <v>0.4533673900159556</v>
       </c>
       <c r="D2">
-        <v>0.1351963726444581</v>
+        <v>0.3362125631299477</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.936124529211241</v>
+        <v>6.566886320426306</v>
       </c>
       <c r="G2">
-        <v>0.002443244553283323</v>
+        <v>0.0007641528163749625</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8870578730246592</v>
+        <v>2.813522506685132</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6438362344940458</v>
+        <v>1.679124682166673</v>
       </c>
       <c r="C3">
-        <v>0.09645981523465252</v>
+        <v>0.3877937384122845</v>
       </c>
       <c r="D3">
-        <v>0.1241782874393209</v>
+        <v>0.2951689128352228</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.713953354689124</v>
+        <v>5.719228373519883</v>
       </c>
       <c r="G3">
-        <v>0.002449556922653842</v>
+        <v>0.0007757735375142438</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7895017007456175</v>
+        <v>2.381247774605853</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6062791358478705</v>
+        <v>1.507438124501363</v>
       </c>
       <c r="C4">
-        <v>0.087579010562024</v>
+        <v>0.3486688004326766</v>
       </c>
       <c r="D4">
-        <v>0.1174106975147424</v>
+        <v>0.2707157136668741</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.578230831821116</v>
+        <v>5.213505962489165</v>
       </c>
       <c r="G4">
-        <v>0.002453625511293309</v>
+        <v>0.0007830046078587871</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7301836773989265</v>
+        <v>2.127632244981967</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5911579579166357</v>
+        <v>1.438493837616363</v>
       </c>
       <c r="C5">
-        <v>0.08397943759374016</v>
+        <v>0.3329601389213792</v>
       </c>
       <c r="D5">
-        <v>0.1146515441342189</v>
+        <v>0.260905845631541</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.523086278532332</v>
+        <v>5.010522987526713</v>
       </c>
       <c r="G5">
-        <v>0.002455332174300686</v>
+        <v>0.0007859805121363088</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7061498467686391</v>
+        <v>2.026696394533602</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5886581246253115</v>
+        <v>1.427102112853078</v>
       </c>
       <c r="C6">
-        <v>0.08338288293327878</v>
+        <v>0.3303645565722633</v>
       </c>
       <c r="D6">
-        <v>0.1141932898567575</v>
+        <v>0.2592854039904182</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.513939139444972</v>
+        <v>4.97698905245565</v>
       </c>
       <c r="G6">
-        <v>0.002455618510408565</v>
+        <v>0.0007864765567710049</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7021672092802618</v>
+        <v>2.010067544497844</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6060744657241628</v>
+        <v>1.50650442591953</v>
       </c>
       <c r="C7">
-        <v>0.08753038778468181</v>
+        <v>0.348456058825775</v>
       </c>
       <c r="D7">
-        <v>0.1173734928043899</v>
+        <v>0.270582827176014</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.577486484841813</v>
+        <v>5.21075664036573</v>
       </c>
       <c r="G7">
-        <v>0.002453648330729755</v>
+        <v>0.0007830446174534371</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7298589968649623</v>
+        <v>2.126261873318086</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6845472528653715</v>
+        <v>1.866345601979646</v>
       </c>
       <c r="C8">
-        <v>0.1060049801290575</v>
+        <v>0.4304886463314688</v>
       </c>
       <c r="D8">
-        <v>0.1313974228434915</v>
+        <v>0.3218841460118398</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.859370034301747</v>
+        <v>6.271163576704538</v>
       </c>
       <c r="G8">
-        <v>0.002445381174069589</v>
+        <v>0.0007681430224810823</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8532951081362796</v>
+        <v>2.66165799789826</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8444113891143274</v>
+        <v>2.620360673580649</v>
       </c>
       <c r="C9">
-        <v>0.1429065185907348</v>
+        <v>0.6030989982681945</v>
       </c>
       <c r="D9">
-        <v>0.1589113843968022</v>
+        <v>0.4302045305417153</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.418128215519602</v>
+        <v>8.500128348622809</v>
       </c>
       <c r="G9">
-        <v>0.002430689355263423</v>
+        <v>0.0007394064993326349</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.100329235156664</v>
+        <v>3.837116672335</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9656818871740143</v>
+        <v>3.221077320959466</v>
       </c>
       <c r="C10">
-        <v>0.1704819173461658</v>
+        <v>0.7417051888967592</v>
       </c>
       <c r="D10">
-        <v>0.179180617294179</v>
+        <v>0.5176145025719734</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.833030792646525</v>
+        <v>10.28538029329724</v>
       </c>
       <c r="G10">
-        <v>0.00242080858791504</v>
+        <v>0.0007181043651863868</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.285383672960236</v>
+        <v>4.838089281624207</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.021719550366186</v>
+        <v>3.509550325798614</v>
       </c>
       <c r="C11">
-        <v>0.183139461686892</v>
+        <v>0.8086769774924392</v>
       </c>
       <c r="D11">
-        <v>0.1884238169948276</v>
+        <v>0.5600403053065008</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.02289593659998</v>
+        <v>11.14679361882634</v>
       </c>
       <c r="G11">
-        <v>0.002416509007142571</v>
+        <v>0.0007082210090854891</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.370460808347318</v>
+        <v>5.344449149033835</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.043067865889441</v>
+        <v>3.621523503477306</v>
       </c>
       <c r="C12">
-        <v>0.1879498017400181</v>
+        <v>0.8347488021901768</v>
       </c>
       <c r="D12">
-        <v>0.1919280485178092</v>
+        <v>0.5765999581022356</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.094967313273514</v>
+        <v>11.4820443068478</v>
       </c>
       <c r="G12">
-        <v>0.002414908717598985</v>
+        <v>0.0007044329522835214</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.40281566585135</v>
+        <v>5.546266959912487</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.038464382721486</v>
+        <v>3.597276206369145</v>
       </c>
       <c r="C13">
-        <v>0.1869130292356829</v>
+        <v>0.8290993958442812</v>
       </c>
       <c r="D13">
-        <v>0.1911731576870466</v>
+        <v>0.5730094147787383</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.079437540537583</v>
+        <v>11.40940156188941</v>
       </c>
       <c r="G13">
-        <v>0.0024152521323529</v>
+        <v>0.000705251146790969</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.395841179998285</v>
+        <v>5.502297356029231</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.023473306080746</v>
+        <v>3.518703981034321</v>
       </c>
       <c r="C14">
-        <v>0.1835348612398207</v>
+        <v>0.8108066952742092</v>
       </c>
       <c r="D14">
-        <v>0.1887120269085472</v>
+        <v>0.5613920152089804</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.028821744292486</v>
+        <v>11.17418005235885</v>
       </c>
       <c r="G14">
-        <v>0.002416376792893005</v>
+        <v>0.0007079103971931788</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.373119842065933</v>
+        <v>5.360831065398258</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.014307601777944</v>
+        <v>3.470950985600837</v>
       </c>
       <c r="C15">
-        <v>0.1814679032707716</v>
+        <v>0.7996994876172607</v>
       </c>
       <c r="D15">
-        <v>0.1872050617155594</v>
+        <v>0.5543442416716857</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.997841069888125</v>
+        <v>11.03134745620986</v>
       </c>
       <c r="G15">
-        <v>0.002417069303383572</v>
+        <v>0.0007095327206199855</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.359220618176934</v>
+        <v>5.275591461001127</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9620374608120983</v>
+        <v>3.202574763553116</v>
       </c>
       <c r="C16">
-        <v>0.1696570746811972</v>
+        <v>0.7374191028818586</v>
       </c>
       <c r="D16">
-        <v>0.1785770740327166</v>
+        <v>0.5149041918609498</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.820646291062104</v>
+        <v>10.23023179914128</v>
       </c>
       <c r="G16">
-        <v>0.002421093486410788</v>
+        <v>0.0007187449965528066</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.279842479262058</v>
+        <v>4.806232943858774</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9301965025731533</v>
+        <v>3.042179011400492</v>
       </c>
       <c r="C17">
-        <v>0.162441181998588</v>
+        <v>0.7003102163817232</v>
       </c>
       <c r="D17">
-        <v>0.1732904281550987</v>
+        <v>0.4914599771771009</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.712239320984139</v>
+        <v>9.752625189155992</v>
       </c>
       <c r="G17">
-        <v>0.00242361204952703</v>
+        <v>0.0007243360870412761</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.231382307525422</v>
+        <v>4.532983426528233</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9119642452985204</v>
+        <v>2.951315263911113</v>
       </c>
       <c r="C18">
-        <v>0.1583014057489152</v>
+        <v>0.6793244553907414</v>
       </c>
       <c r="D18">
-        <v>0.1702517714401068</v>
+        <v>0.4782178825174697</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.649991555529766</v>
+        <v>9.482413677144706</v>
       </c>
       <c r="G18">
-        <v>0.002425079048772746</v>
+        <v>0.0007275350956683084</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.203592961534923</v>
+        <v>4.380406923694849</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9058050847783647</v>
+        <v>2.920774749106272</v>
       </c>
       <c r="C19">
-        <v>0.1569015445591333</v>
+        <v>0.6722766331502612</v>
       </c>
       <c r="D19">
-        <v>0.1692232685646502</v>
+        <v>0.4737731058719987</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.628933214719012</v>
+        <v>9.391645813254627</v>
       </c>
       <c r="G19">
-        <v>0.002425578914018428</v>
+        <v>0.0007286157855315807</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.194198056923582</v>
+        <v>4.329468988123736</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9335775388524894</v>
+        <v>3.059105828704503</v>
       </c>
       <c r="C20">
-        <v>0.1632082210843464</v>
+        <v>0.7042224817882072</v>
       </c>
       <c r="D20">
-        <v>0.1738529795320858</v>
+        <v>0.4939298676829367</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.723768469192123</v>
+        <v>9.80298956914541</v>
       </c>
       <c r="G20">
-        <v>0.002423342042569781</v>
+        <v>0.0007237427593124301</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.236532250248416</v>
+        <v>4.561579967830298</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.027873050161588</v>
+        <v>3.541703265976821</v>
       </c>
       <c r="C21">
-        <v>0.1845266368880232</v>
+        <v>0.8161590482100962</v>
       </c>
       <c r="D21">
-        <v>0.1894348049698351</v>
+        <v>0.5647898591257672</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.043684023620244</v>
+        <v>11.24300595517172</v>
       </c>
       <c r="G21">
-        <v>0.002416045698390501</v>
+        <v>0.0007071307152155706</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.379789829170406</v>
+        <v>5.402082093752469</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.090248462009754</v>
+        <v>3.873413787803486</v>
       </c>
       <c r="C22">
-        <v>0.1985601598350968</v>
+        <v>0.8935582108474307</v>
       </c>
       <c r="D22">
-        <v>0.1996423029825394</v>
+        <v>0.6140608797632012</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.25378472819483</v>
+        <v>12.23831347835375</v>
       </c>
       <c r="G22">
-        <v>0.002411439457174026</v>
+        <v>0.0006959957204234526</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.474225788383436</v>
+        <v>6.012379519626393</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.056888154274191</v>
+        <v>3.694661572026575</v>
       </c>
       <c r="C23">
-        <v>0.1910606858326958</v>
+        <v>0.8518016808533275</v>
       </c>
       <c r="D23">
-        <v>0.1941919240595666</v>
+        <v>0.5874462267903198</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.141552926314205</v>
+        <v>11.70131914125511</v>
       </c>
       <c r="G23">
-        <v>0.002413883108412396</v>
+        <v>0.0007019716956921223</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.423746381884953</v>
+        <v>5.679818398032822</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.932048743520113</v>
+        <v>3.051449049402663</v>
       </c>
       <c r="C24">
-        <v>0.1628614155690116</v>
+        <v>0.7024526713118462</v>
       </c>
       <c r="D24">
-        <v>0.1735986479126268</v>
+        <v>0.492812502035008</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.718555902831326</v>
+        <v>9.780206358021871</v>
       </c>
       <c r="G24">
-        <v>0.00242346405354921</v>
+        <v>0.0007240110496524514</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.23420374053147</v>
+        <v>4.548637586338913</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8005061617689648</v>
+        <v>2.409615515051826</v>
       </c>
       <c r="C25">
-        <v>0.1328461689817004</v>
+        <v>0.5547212473087484</v>
       </c>
       <c r="D25">
-        <v>0.1514619330618387</v>
+        <v>0.3997930475592426</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.266253382406745</v>
+        <v>7.876010034066866</v>
       </c>
       <c r="G25">
-        <v>0.002434502528124131</v>
+        <v>0.0007471721116006102</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.032913852734069</v>
+        <v>3.500468144289414</v>
       </c>
       <c r="N25">
         <v>0</v>
